--- a/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88474</v>
+        <v>88477</v>
       </c>
       <c r="D114" t="n">
         <v>14314</v>
       </c>
       <c r="E114" t="n">
-        <v>216759422</v>
+        <v>216767689</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16937</v>
+        <v>16941</v>
       </c>
       <c r="D401" t="n">
         <v>2945</v>
       </c>
       <c r="E401" t="n">
-        <v>50658037</v>
+        <v>50660115</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9342</v>
+        <v>9344</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23821759</v>
+        <v>23829850</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>40404</v>
+        <v>40406</v>
       </c>
       <c r="D428" t="n">
         <v>6930</v>
       </c>
       <c r="E428" t="n">
-        <v>215158895</v>
+        <v>215219541</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>88337</v>
+        <v>88339</v>
       </c>
       <c r="D459" t="n">
         <v>16394</v>
       </c>
       <c r="E459" t="n">
-        <v>151555713</v>
+        <v>151567802</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416744</v>
+        <v>416746</v>
       </c>
       <c r="D477" t="n">
         <v>70499</v>
       </c>
       <c r="E477" t="n">
-        <v>725211927</v>
+        <v>725222352</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292094</v>
+        <v>292100</v>
       </c>
       <c r="D484" t="n">
         <v>42566</v>
       </c>
       <c r="E484" t="n">
-        <v>1770780754</v>
+        <v>1770984304</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D485" t="n">
         <v>420</v>
       </c>
       <c r="E485" t="n">
-        <v>99913911</v>
+        <v>100002797</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230666</v>
+        <v>230683</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1820098168</v>
+        <v>1820902962</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25951,13 +25951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>38089</v>
+        <v>38091</v>
       </c>
       <c r="D501" t="n">
         <v>6578</v>
       </c>
       <c r="E501" t="n">
-        <v>177109909</v>
+        <v>177160205</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184262</v>
+        <v>184265</v>
       </c>
       <c r="D505" t="n">
         <v>27737</v>
       </c>
       <c r="E505" t="n">
-        <v>332736481</v>
+        <v>332746689</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62184</v>
+        <v>62186</v>
       </c>
       <c r="D509" t="n">
         <v>11277</v>
       </c>
       <c r="E509" t="n">
-        <v>298981780</v>
+        <v>299005841</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71189</v>
+        <v>71190</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287409316</v>
+        <v>287419316</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="D513" t="n">
         <v>540</v>
       </c>
       <c r="E513" t="n">
-        <v>14354035</v>
+        <v>14364035</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="D534" t="n">
         <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>219932787</v>
+        <v>220132787</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163436</v>
+        <v>163437</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278429721</v>
+        <v>278430785</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -47065,13 +47065,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>96857</v>
+        <v>96858</v>
       </c>
       <c r="D915" t="n">
         <v>17575</v>
       </c>
       <c r="E915" t="n">
-        <v>463317154</v>
+        <v>463319404</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
@@ -47575,13 +47575,13 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>12200</v>
+        <v>12203</v>
       </c>
       <c r="D925" t="n">
         <v>1959</v>
       </c>
       <c r="E925" t="n">
-        <v>76251330</v>
+        <v>76281330</v>
       </c>
       <c r="F925" t="inlineStr">
         <is>
@@ -48238,13 +48238,13 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>38554</v>
+        <v>38556</v>
       </c>
       <c r="D938" t="n">
         <v>6911</v>
       </c>
       <c r="E938" t="n">
-        <v>195385199</v>
+        <v>195507462</v>
       </c>
       <c r="F938" t="inlineStr">
         <is>
